--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.15/sum_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.15/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="142">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
@@ -58,49 +58,100 @@
     <t>shit</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>fake</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>behind</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>stupid</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>weird</t>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>insane</t>
@@ -109,156 +160,42 @@
     <t>false</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>black</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>least</t>
   </si>
   <si>
     <t>sad</t>
   </si>
   <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>anxious</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>ruining</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>ass</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
     <t>chilling</t>
   </si>
   <si>
@@ -268,12 +205,12 @@
     <t>great</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
@@ -289,10 +226,16 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>first</t>
@@ -301,283 +244,199 @@
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>wanna</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>quite</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>reality</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>favorite</t>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>live</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>inspired</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>masterpiece</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>po</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>del</t>
-  </si>
-  <si>
-    <t>wo</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>sober</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>impressed</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>outstanding</t>
-  </si>
-  <si>
-    <t>yeah</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>yoo</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>reality</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>agile</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>hugely</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ask</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>biggest</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>hu</t>
+    <t>soc</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>strongly</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>mack</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>plus</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>2010</t>
+    <t>kind</t>
   </si>
   <si>
     <t>positive</t>
@@ -938,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,10 +805,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1007,13 +866,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1549053356282272</v>
+        <v>0.1796296296296296</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1025,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="K3">
-        <v>0.1086474501108647</v>
+        <v>0.1108433734939759</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1049,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1057,13 +916,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1135972461273666</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="C4">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1075,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="K4">
-        <v>0.09090909090909091</v>
+        <v>0.1036144578313253</v>
       </c>
       <c r="L4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1099,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1107,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1049913941480207</v>
+        <v>0.112962962962963</v>
       </c>
       <c r="C5">
         <v>61</v>
@@ -1125,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>0.08425720620842572</v>
+        <v>0.1012048192771084</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1149,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1157,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04819277108433735</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1175,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>0.082039911308204</v>
+        <v>0.09156626506024096</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1199,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1207,13 +1066,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04819277108433735</v>
+        <v>0.05</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1225,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>0.07538802660753881</v>
+        <v>0.07951807228915662</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1249,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1257,13 +1116,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03098106712564544</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1275,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="K8">
-        <v>0.05764966740576496</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="L8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1299,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1307,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02409638554216868</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1325,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>0.0376940133037694</v>
+        <v>0.04096385542168675</v>
       </c>
       <c r="L9">
         <v>17</v>
@@ -1357,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02237521514629948</v>
+        <v>0.02407407407407407</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -1375,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>0.03104212860310421</v>
+        <v>0.03855421686746988</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1399,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1407,13 +1266,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02065404475043029</v>
+        <v>0.02407407407407407</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1425,13 +1284,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="K11">
-        <v>0.0221729490022173</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1457,7 +1316,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.02065404475043029</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1475,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>0.01995565410199556</v>
+        <v>0.01927710843373494</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1499,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1507,49 +1366,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0189328743545611</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13">
+        <v>0.01686746987951807</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>11</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>28</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13">
-        <v>0.01773835920177384</v>
-      </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>8</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1557,7 +1416,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01721170395869191</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1575,13 +1434,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="K14">
-        <v>0.01330376940133038</v>
+        <v>0.01445783132530121</v>
       </c>
       <c r="L14">
         <v>6</v>
@@ -1599,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1607,7 +1466,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01549053356282272</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -1625,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>0.01330376940133038</v>
+        <v>0.01445783132530121</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -1649,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1657,7 +1516,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01549053356282272</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -1675,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="K16">
-        <v>0.01330376940133038</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1699,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1707,7 +1566,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01549053356282272</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -1725,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="K17">
-        <v>0.01108647450110865</v>
+        <v>0.009638554216867471</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1749,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1757,7 +1616,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01376936316695353</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1775,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="K18">
-        <v>0.01108647450110865</v>
+        <v>0.009638554216867471</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1799,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1807,7 +1666,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01376936316695353</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1825,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="K19">
-        <v>0.008869179600886918</v>
+        <v>0.009638554216867471</v>
       </c>
       <c r="L19">
         <v>4</v>
@@ -1849,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1857,7 +1716,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01376936316695353</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1875,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="K20">
-        <v>0.008869179600886918</v>
+        <v>0.009638554216867471</v>
       </c>
       <c r="L20">
         <v>4</v>
@@ -1899,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>660</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1907,13 +1766,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01376936316695353</v>
+        <v>0.01296296296296296</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1925,13 +1784,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="K21">
-        <v>0.008869179600886918</v>
+        <v>0.009638554216867471</v>
       </c>
       <c r="L21">
         <v>4</v>
@@ -1949,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1957,7 +1816,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01204819277108434</v>
+        <v>0.01296296296296296</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -1975,13 +1834,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="K22">
-        <v>0.008869179600886918</v>
+        <v>0.009638554216867471</v>
       </c>
       <c r="L22">
         <v>4</v>
@@ -1999,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2007,7 +1866,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01204819277108434</v>
+        <v>0.01296296296296296</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -2025,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="K23">
-        <v>0.008869179600886918</v>
+        <v>0.007228915662650603</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2049,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2057,7 +1916,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01204819277108434</v>
+        <v>0.01296296296296296</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -2075,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="K24">
-        <v>0.006651884700665188</v>
+        <v>0.007228915662650603</v>
       </c>
       <c r="L24">
         <v>3</v>
@@ -2099,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2107,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01204819277108434</v>
+        <v>0.01296296296296296</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -2125,13 +1984,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K25">
-        <v>0.006651884700665188</v>
+        <v>0.007228915662650603</v>
       </c>
       <c r="L25">
         <v>3</v>
@@ -2149,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2157,13 +2016,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01032702237521515</v>
+        <v>0.01296296296296296</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2175,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="K26">
-        <v>0.006651884700665188</v>
+        <v>0.007228915662650603</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -2199,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2207,7 +2066,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01032702237521515</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -2225,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="K27">
-        <v>0.006651884700665188</v>
+        <v>0.007228915662650603</v>
       </c>
       <c r="L27">
         <v>3</v>
@@ -2249,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2257,7 +2116,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01032702237521515</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -2278,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="K28">
-        <v>0.006651884700665188</v>
+        <v>0.007228915662650603</v>
       </c>
       <c r="L28">
         <v>3</v>
@@ -2299,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2307,13 +2166,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01032702237521515</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2325,13 +2184,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="K29">
-        <v>0.006651884700665188</v>
+        <v>0.007228915662650603</v>
       </c>
       <c r="L29">
         <v>3</v>
@@ -2349,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2357,13 +2216,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01032702237521515</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2375,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="K30">
-        <v>0.006651884700665188</v>
+        <v>0.007228915662650603</v>
       </c>
       <c r="L30">
         <v>3</v>
@@ -2399,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>134</v>
+        <v>537</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2407,7 +2266,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.008605851979345954</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -2425,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="K31">
-        <v>0.006651884700665188</v>
+        <v>0.007228915662650603</v>
       </c>
       <c r="L31">
         <v>3</v>
@@ -2449,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>280</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2457,7 +2316,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.008605851979345954</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2475,19 +2334,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="K32">
-        <v>0.006651884700665188</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2499,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2507,7 +2366,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008605851979345954</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -2525,19 +2384,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="K33">
-        <v>0.006651884700665188</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2549,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>613</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2557,7 +2416,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.008605851979345954</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -2575,19 +2434,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K34">
-        <v>0.006651884700665188</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2599,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>1733</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2607,13 +2466,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006884681583476764</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2625,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="K35">
-        <v>0.004434589800443459</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="L35">
         <v>2</v>
@@ -2649,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2657,13 +2516,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006884681583476764</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2675,13 +2534,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="K36">
-        <v>0.004434589800443459</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="L36">
         <v>2</v>
@@ -2699,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2707,7 +2566,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006884681583476764</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -2725,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="K37">
-        <v>0.004434589800443459</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="L37">
         <v>2</v>
@@ -2749,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2757,7 +2616,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006884681583476764</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -2775,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="K38">
-        <v>0.004434589800443459</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="L38">
         <v>2</v>
@@ -2799,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2807,13 +2666,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006884681583476764</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2825,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="K39">
-        <v>0.004434589800443459</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -2857,13 +2716,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006884681583476764</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2875,13 +2734,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="K40">
-        <v>0.004434589800443459</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -2899,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2907,7 +2766,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005163511187607574</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -2925,13 +2784,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="K41">
-        <v>0.004434589800443459</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="L41">
         <v>2</v>
@@ -2949,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2957,7 +2816,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005163511187607574</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2975,19 +2834,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="K42">
-        <v>0.004434589800443459</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2999,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3007,13 +2866,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005163511187607574</v>
+        <v>0.003703703703703704</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3025,19 +2884,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="K43">
-        <v>0.004434589800443459</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3049,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3057,13 +2916,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005163511187607574</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3075,19 +2934,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="K44">
-        <v>0.004434589800443459</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3099,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3107,13 +2966,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005163511187607574</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3125,31 +2984,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="K45">
-        <v>0.004434589800443459</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>2</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3157,13 +3016,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005163511187607574</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3175,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="K46">
-        <v>0.004434589800443459</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3199,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3207,13 +3066,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003442340791738382</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3225,19 +3084,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="K47">
-        <v>0.004434589800443459</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3249,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3257,31 +3116,31 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003442340791738382</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K48">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -3299,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3307,13 +3166,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003442340791738382</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3325,13 +3184,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K49">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -3349,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3357,13 +3216,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003442340791738382</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3375,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="K50">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -3399,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3407,13 +3266,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003442340791738382</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3425,13 +3284,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="K51">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -3449,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3457,13 +3316,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003442340791738382</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3475,13 +3334,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="K52">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -3499,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3507,13 +3366,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003442340791738382</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3525,13 +3384,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="K53">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3549,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>13</v>
+        <v>663</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3557,13 +3416,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003442340791738382</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3575,13 +3434,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="K54">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -3599,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3607,13 +3466,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003442340791738382</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3625,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="K55">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3649,239 +3508,119 @@
         <v>0</v>
       </c>
       <c r="Q55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K56">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K57">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K58">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K59">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>3</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K56">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K57">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K58">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K59">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>539</v>
-      </c>
-    </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>27</v>
-      </c>
       <c r="J60" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="K60">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -3899,39 +3638,15 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>5</v>
-      </c>
       <c r="J61" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="K61">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -3949,339 +3664,171 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
+      <c r="J62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K62">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K63">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K64">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K65">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K66">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K67">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
         <v>14</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K62">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>18</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K63">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>20</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K64">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K65">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K66">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K67">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="K68">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4299,39 +3846,15 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="K69">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4349,39 +3872,15 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="K70">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -4402,36 +3901,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
+    <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="K71">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4449,39 +3924,15 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="K72">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4499,39 +3950,15 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="K73">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4549,191 +3976,119 @@
         <v>0</v>
       </c>
       <c r="Q73">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K74">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K75">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K76">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K74">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>9</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K75">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.001721170395869191</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76">
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K77">
+        <v>0.002409638554216868</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
         <v>8</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K76">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="J77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K77">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+    </row>
+    <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="K78">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4751,15 +4106,15 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="K79">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -4777,15 +4132,15 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="K80">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -4803,15 +4158,15 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="K81">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -4829,15 +4184,15 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="K82">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -4855,15 +4210,15 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="K83">
-        <v>0.002217294900221729</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -4881,657 +4236,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K84">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K85">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K86">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K87">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87">
-        <v>1</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K88">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K89">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K90">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K91">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="M91">
-        <v>1</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K92">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
-      <c r="J93" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K93">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="10:17">
-      <c r="J94" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K94">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L94">
-        <v>1</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="10:17">
-      <c r="J95" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K95">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L95">
-        <v>1</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
-      </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="10:17">
-      <c r="J96" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K96">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L96">
-        <v>1</v>
-      </c>
-      <c r="M96">
-        <v>1</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="P96" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="10:17">
-      <c r="J97" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K97">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="10:17">
-      <c r="J98" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K98">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L98">
-        <v>1</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="99" spans="10:17">
-      <c r="J99" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K99">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99">
-        <v>1</v>
-      </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="10:17">
-      <c r="J100" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K100">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L100">
-        <v>1</v>
-      </c>
-      <c r="M100">
-        <v>1</v>
-      </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="10:17">
-      <c r="J101" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K101">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L101">
-        <v>1</v>
-      </c>
-      <c r="M101">
-        <v>1</v>
-      </c>
-      <c r="N101">
-        <v>1</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="10:17">
-      <c r="J102" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K102">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-      <c r="P102" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="10:17">
-      <c r="J103" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K103">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="M103">
-        <v>1</v>
-      </c>
-      <c r="N103">
-        <v>1</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-      <c r="P103" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="10:17">
-      <c r="J104" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K104">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L104">
-        <v>1</v>
-      </c>
-      <c r="M104">
-        <v>1</v>
-      </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="P104" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="10:17">
-      <c r="J105" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K105">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L105">
-        <v>1</v>
-      </c>
-      <c r="M105">
-        <v>1</v>
-      </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-      <c r="P105" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="10:17">
-      <c r="J106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K106">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L106">
-        <v>1</v>
-      </c>
-      <c r="M106">
-        <v>1</v>
-      </c>
-      <c r="N106">
-        <v>1</v>
-      </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-      <c r="P106" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="107" spans="10:17">
-      <c r="J107" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K107">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L107">
-        <v>1</v>
-      </c>
-      <c r="M107">
-        <v>1</v>
-      </c>
-      <c r="N107">
-        <v>1</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="P107" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="10:17">
-      <c r="J108" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K108">
-        <v>0.002217294900221729</v>
-      </c>
-      <c r="L108">
-        <v>1</v>
-      </c>
-      <c r="M108">
-        <v>1</v>
-      </c>
-      <c r="N108">
-        <v>1</v>
-      </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-      <c r="P108" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q108">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
